--- a/skrum_docs/04_SpecificDesign/10_OKRDetails_紐付け先変更画面仕様書_20170702.xlsx
+++ b/skrum_docs/04_SpecificDesign/10_OKRDetails_紐付け先変更画面仕様書_20170702.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/OneDrive/Skrum/07_プロダクト開発/プロダクト資料/03_詳細設計/画面仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/Dev/skrum/skrum_docs/04_SpecificDesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="27580" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="紐付け先変更（目標）" sheetId="1" r:id="rId1"/>
-    <sheet name="紐付け先変更（サブ目標）" sheetId="2" r:id="rId2"/>
+    <sheet name="モーダル画面の出しわけ" sheetId="3" r:id="rId1"/>
+    <sheet name="紐付け先変更（目標）" sheetId="1" r:id="rId2"/>
+    <sheet name="紐付け先変更（サブ目標）" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>紐付け先変更（目標）</t>
     <rPh sb="0" eb="2">
@@ -52,6 +53,19 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>モクヒョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紐付け先変更（モーダル画面の出しわけ）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒモヅk</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダシワケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -146,6 +160,367 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>215899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>183644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76199" y="952499"/>
+          <a:ext cx="12674601" cy="7079745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形吹き出し 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="1955800"/>
+          <a:ext cx="4470400" cy="1282700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -78231"/>
+            <a:gd name="adj2" fmla="val 40243"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>This "okrType" is 1 (objective)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> Go to "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>紐付け先変更（目標）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>" sheet.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形吹き出し 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12966700" y="4978400"/>
+          <a:ext cx="4470400" cy="1282700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -78231"/>
+            <a:gd name="adj2" fmla="val 40243"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>This "okrType" is 1 (objective)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> Go to "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>紐付け先変更（目標）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>" sheet.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12966700" y="6705600"/>
+          <a:ext cx="4711700" cy="1282700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -76811"/>
+            <a:gd name="adj2" fmla="val -19163"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>This "okrType" is 2 (key result)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> Go to "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>紐付け先変更（サブ目標）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>" sheet.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形吹き出し 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5308600" y="317500"/>
+          <a:ext cx="4140200" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -48401"/>
+            <a:gd name="adj2" fmla="val 21431"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>Which modal screen to show</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1452,7 +1827,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2984,9 +3359,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="38" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3003,7 +3396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
